--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="stock" sheetId="1" r:id="rId1"/>
+    <sheet name="target" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>000826</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,6 +183,65 @@
   <si>
     <t>6.60</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600171</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海贝岭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据聚合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scrapy库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解scrapy提供的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能爬取https网站(选股宝)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《雪国》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行一个基本的爬虫实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习scrapy的概念</t>
   </si>
 </sst>
 </file>
@@ -248,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -257,6 +316,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -561,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -727,6 +795,100 @@
         <v>40</v>
       </c>
     </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="9.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D6" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
   <si>
     <t>code</t>
   </si>
@@ -46,18 +46,9 @@
     <t>趋势</t>
   </si>
   <si>
-    <t>000826</t>
-  </si>
-  <si>
     <t>启迪桑德</t>
   </si>
   <si>
-    <t>14.00</t>
-  </si>
-  <si>
-    <t>15.80</t>
-  </si>
-  <si>
     <t>-4.00</t>
   </si>
   <si>
@@ -67,12 +58,6 @@
     <t>便宜 绩优</t>
   </si>
   <si>
-    <t>600332</t>
-  </si>
-  <si>
-    <t>白云山</t>
-  </si>
-  <si>
     <t>-4</t>
   </si>
   <si>
@@ -91,12 +76,6 @@
     <t>中国中车</t>
   </si>
   <si>
-    <t>-2</t>
-  </si>
-  <si>
-    <t>002217</t>
-  </si>
-  <si>
     <t>合力泰</t>
   </si>
   <si>
@@ -106,91 +85,19 @@
     <t>3</t>
   </si>
   <si>
-    <t>600754</t>
-  </si>
-  <si>
     <t>锦江股份</t>
   </si>
   <si>
-    <t>600392</t>
-  </si>
-  <si>
     <t>盛和资源/五矿稀土</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>000989</t>
-  </si>
-  <si>
     <t>九芝堂</t>
   </si>
   <si>
-    <t>12.30</t>
-  </si>
-  <si>
-    <t>13.90</t>
-  </si>
-  <si>
-    <t>600230</t>
-  </si>
-  <si>
     <t>沧州大化</t>
   </si>
   <si>
-    <t>000002</t>
-  </si>
-  <si>
     <t>万科a</t>
-  </si>
-  <si>
-    <r>
-      <t>11.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.60</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>40</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -214,7 +121,195 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>7.40</t>
+    <t>操作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.72</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>医药</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.60</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.70</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>企稳</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖半</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.70</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>28.30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾盘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>26.85</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.60</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.60</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>000826</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>!600230</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方航空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.50</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.76</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>002423</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中原特钢</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>000989</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>!白云山</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>!600332</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.70</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>600893</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>航发动力</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>!000002</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>!600029</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>!600392</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>!600754</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>!002217</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -604,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -649,166 +744,276 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>16</v>
+      <c r="K2" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
+      <c r="K3" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>47</v>
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="6" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8">
-        <v>-2</v>
+        <v>14</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="G10" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
